--- a/docss/trend/belgium/E_huntington.xlsx
+++ b/docss/trend/belgium/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,210 +1581,210 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.18288501398637891</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.17845184728503227</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.18313436955213547</v>
+      <c r="B2">
+        <v>0.183</v>
+      </c>
+      <c r="C2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.30856510624289513</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.20533723291009665</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.39823099272325635</v>
+      <c r="B3">
+        <v>0.309</v>
+      </c>
+      <c r="C3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.14949586382135749</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.17552709113806486</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.12881887145340443</v>
+      <c r="B4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.20784233696758747</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.18574653100222349</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.2397340121679008</v>
+      <c r="B5">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.186</v>
+      </c>
+      <c r="D5">
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.32369885547086596</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.27632017899304628</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.36228187475353479</v>
+      <c r="B6">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.36199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.19008322805166245</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.11912563350051641</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.25366137269884348</v>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+      <c r="C7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.254</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.22363385790959001</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.25220446288585663</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.19594030641019344</v>
+      <c r="B8">
+        <v>0.224</v>
+      </c>
+      <c r="C8">
+        <v>0.252</v>
+      </c>
+      <c r="D8">
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.29652323550544679</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.35576812364161015</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.25250645168125629</v>
+      <c r="B9">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.253</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.29339248826727271</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.25473607331514359</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.33152191014960408</v>
+      <c r="B10">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.255</v>
+      </c>
+      <c r="D10">
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.30658490164205432</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.21476473566144705</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.38819631934165955</v>
+      <c r="B11">
+        <v>0.307</v>
+      </c>
+      <c r="C11">
+        <v>0.215</v>
+      </c>
+      <c r="D11">
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.24633206054568291</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.16991351172327995</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.31355165224522352</v>
+      <c r="B12">
+        <v>0.246</v>
+      </c>
+      <c r="C12">
+        <v>0.17</v>
+      </c>
+      <c r="D12">
+        <v>0.314</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.29540047654882073</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.36277382913976908</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.24053127784281969</v>
+      <c r="B13">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.24309909716248512</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.23799843899905682</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.24324223399162292</v>
+      <c r="B14">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.32130245305597782</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.31939406879246235</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.32481047697365284</v>
+      <c r="B15">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.38857227400876582</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.35037996433675289</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.42222193395718932</v>
+      <c r="B16">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.35</v>
+      </c>
+      <c r="D16">
+        <v>0.42199999999999999</v>
       </c>
     </row>
   </sheetData>
